--- a/docs/Sprint 9 - 1606 To 2906/LogTime_sprint 9.xlsx
+++ b/docs/Sprint 9 - 1606 To 2906/LogTime_sprint 9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
@@ -20,84 +20,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
-  <si>
-    <t>Thực hiện Sync với ngân lượng.</t>
-  </si>
-  <si>
-    <t>Test, chạy thử hệ thống trên production system</t>
-  </si>
-  <si>
-    <t>19/05/2014</t>
-  </si>
-  <si>
-    <t>20/05/2014</t>
-  </si>
-  <si>
-    <t>21/05/2014</t>
-  </si>
-  <si>
-    <t>22/05/2014</t>
-  </si>
-  <si>
-    <t>23/05/2014</t>
-  </si>
-  <si>
-    <t>24/05/2014</t>
-  </si>
-  <si>
-    <t>25/05/2014</t>
-  </si>
-  <si>
-    <t>26/05/2014</t>
-  </si>
-  <si>
-    <t>27/05/2014</t>
-  </si>
-  <si>
-    <t>28/05/2014</t>
-  </si>
-  <si>
-    <t>29/05/2014</t>
-  </si>
-  <si>
-    <t>30/05/2014</t>
-  </si>
-  <si>
-    <t>31/05/2014</t>
-  </si>
-  <si>
-    <t>01/06/2014</t>
-  </si>
-  <si>
-    <t>Hiện tại admin có thể tìm kiếm order</t>
-  </si>
-  <si>
-    <t>Quản lý order</t>
-  </si>
-  <si>
-    <t>refactor ajax API</t>
-  </si>
-  <si>
-    <t>Update invoice detail - portal admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting </t>
-  </si>
-  <si>
-    <t>Mail template</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Column1</t>
   </si>
   <si>
-    <t>Đăng sản phẩm có các tab thông tin cơ bản giá, category, image, meta</t>
-  </si>
-  <si>
-    <t>Cart</t>
-  </si>
-  <si>
-    <t>Phân quyền admin</t>
+    <t>16/06/2014</t>
+  </si>
+  <si>
+    <t>17/06/2014</t>
+  </si>
+  <si>
+    <t>18/06/2014</t>
+  </si>
+  <si>
+    <t>19/06/2014</t>
+  </si>
+  <si>
+    <t>20/06/2014</t>
+  </si>
+  <si>
+    <t>21/06/2014</t>
+  </si>
+  <si>
+    <t>22/06/2014</t>
+  </si>
+  <si>
+    <t>23/06/2014</t>
+  </si>
+  <si>
+    <t>24/06/2014</t>
+  </si>
+  <si>
+    <t>25/06/2014</t>
+  </si>
+  <si>
+    <t>26/06/2014</t>
+  </si>
+  <si>
+    <t>27/06/2014</t>
+  </si>
+  <si>
+    <t>28/06/2014</t>
+  </si>
+  <si>
+    <t>29/06/2014</t>
+  </si>
+  <si>
+    <t>Fix bug</t>
+  </si>
+  <si>
+    <t>metting</t>
+  </si>
+  <si>
+    <t>Đa ngôn ngữ</t>
+  </si>
+  <si>
+    <t>update giao diện</t>
+  </si>
+  <si>
+    <t>Test hệ thống</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Validate product</t>
   </si>
 </sst>
 </file>
@@ -142,18 +130,104 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -174,51 +248,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O13" totalsRowCount="1" headerRowDxfId="1">
-  <autoFilter ref="A1:O12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O7" totalsRowCount="1" headerRowDxfId="31">
+  <autoFilter ref="A1:O6"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="19/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[19/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" name="20/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[20/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" name="21/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[21/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="5" name="22/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[22/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="6" name="23/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[23/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="7" name="24/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[24/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="8" name="25/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[25/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="9" name="26/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[26/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="10" name="27/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[27/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="11" name="28/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[28/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="12" name="29/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[29/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="13" name="30/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[30/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="14" name="31/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[31/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="15" name="01/06/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[01/06/2014])</totalsRowFormula>
+    <tableColumn id="1" name="Column1" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" name="16/06/2014" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+      <totalsRowFormula>SUM(Table2[16/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="17/06/2014" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+      <totalsRowFormula>SUM(Table2[17/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="18/06/2014" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+      <totalsRowFormula>SUM(Table2[18/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="19/06/2014" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+      <totalsRowFormula>SUM(Table2[19/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="20/06/2014" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+      <totalsRowFormula>SUM(Table2[20/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" name="21/06/2014" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+      <totalsRowFormula>SUM(Table2[21/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" name="22/06/2014" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+      <totalsRowFormula>SUM(Table2[22/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" name="23/06/2014" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+      <totalsRowFormula>SUM(Table2[23/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" name="24/06/2014" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+      <totalsRowFormula>SUM(Table2[24/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" name="25/06/2014" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+      <totalsRowFormula>SUM(Table2[25/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" name="26/06/2014" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+      <totalsRowFormula>SUM(Table2[26/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" name="27/06/2014" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+      <totalsRowFormula>SUM(Table2[27/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" name="28/06/2014" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+      <totalsRowFormula>SUM(Table2[28/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" name="29/06/2014" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+      <totalsRowFormula>SUM(Table2[29/06/2014])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -226,51 +300,51 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:O10" totalsRowCount="1" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:O10" totalsRowCount="1" headerRowDxfId="30">
   <autoFilter ref="A1:O9"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="19/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[19/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" name="20/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[20/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" name="21/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[21/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="5" name="22/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[22/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="6" name="23/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[23/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="7" name="24/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[24/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="8" name="25/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[25/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="9" name="26/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[26/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="10" name="27/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[27/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="11" name="28/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[28/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="12" name="29/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[29/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="13" name="30/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[30/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="14" name="31/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[31/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="15" name="01/06/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[01/06/2014])</totalsRowFormula>
+    <tableColumn id="2" name="16/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[16/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="17/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[17/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="18/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[18/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="19/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[19/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="20/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[20/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" name="21/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[21/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" name="22/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[22/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" name="23/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[23/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" name="24/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[24/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" name="25/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[25/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" name="26/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[26/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" name="27/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[27/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" name="28/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[28/06/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" name="29/06/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[29/06/2014])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -540,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,197 +632,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>22</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6">
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <f>SUM(Table2[16/06/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM(Table2[17/06/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM(Table2[18/06/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM(Table2[19/06/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <f>SUM(Table2[20/06/2014])</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <f>SUM(Table2[21/06/2014])</f>
+        <v>7</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM(Table2[22/06/2014])</f>
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
+        <f>SUM(Table2[23/06/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f>SUM(Table2[24/06/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f>SUM(Table2[25/06/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <f>SUM(Table2[26/06/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <f>SUM(Table2[27/06/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUM(Table2[28/06/2014])</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <f>SUM(Table2[29/06/2014])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f>SUM(Table2[19/05/2014])</f>
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <f>SUM(Table2[20/05/2014])</f>
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <f>SUM(Table2[21/05/2014])</f>
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <f>SUM(Table2[22/05/2014])</f>
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <f>SUM(Table2[23/05/2014])</f>
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <f>SUM(Table2[24/05/2014])</f>
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <f>SUM(Table2[25/05/2014])</f>
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <f>SUM(Table2[26/05/2014])</f>
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <f>SUM(Table2[27/05/2014])</f>
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <f>SUM(Table2[28/05/2014])</f>
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <f>SUM(Table2[29/05/2014])</f>
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <f>SUM(Table2[30/05/2014])</f>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f>SUM(Table2[31/05/2014])</f>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f>SUM(Table2[01/06/2014])</f>
-        <v>0</v>
-      </c>
-    </row>
+    </row>
+    <row r="18" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -762,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,141 +844,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>22</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>4</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f>SUM(Table24[19/05/2014])</f>
-        <v>1</v>
+        <f>SUM(Table24[16/06/2014])</f>
+        <v>0</v>
       </c>
       <c r="C10">
-        <f>SUM(Table24[20/05/2014])</f>
-        <v>3</v>
+        <f>SUM(Table24[17/06/2014])</f>
+        <v>4</v>
       </c>
       <c r="D10">
-        <f>SUM(Table24[21/05/2014])</f>
+        <f>SUM(Table24[18/06/2014])</f>
         <v>4</v>
       </c>
       <c r="E10">
-        <f>SUM(Table24[22/05/2014])</f>
-        <v>2</v>
+        <f>SUM(Table24[19/06/2014])</f>
+        <v>0</v>
       </c>
       <c r="F10">
-        <f>SUM(Table24[23/05/2014])</f>
-        <v>3</v>
+        <f>SUM(Table24[20/06/2014])</f>
+        <v>0</v>
       </c>
       <c r="G10">
-        <f>SUM(Table24[24/05/2014])</f>
-        <v>12</v>
+        <f>SUM(Table24[21/06/2014])</f>
+        <v>0</v>
       </c>
       <c r="H10">
-        <f>SUM(Table24[25/05/2014])</f>
+        <f>SUM(Table24[22/06/2014])</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUM(Table24[26/05/2014])</f>
+        <f>SUM(Table24[23/06/2014])</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUM(Table24[27/05/2014])</f>
+        <f>SUM(Table24[24/06/2014])</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUM(Table24[28/05/2014])</f>
-        <v>1</v>
+        <f>SUM(Table24[25/06/2014])</f>
+        <v>0</v>
       </c>
       <c r="L10">
-        <f>SUM(Table24[29/05/2014])</f>
+        <f>SUM(Table24[26/06/2014])</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>SUM(Table24[30/05/2014])</f>
+        <f>SUM(Table24[27/06/2014])</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>SUM(Table24[31/05/2014])</f>
+        <f>SUM(Table24[28/06/2014])</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>SUM(Table24[01/06/2014])</f>
+        <f>SUM(Table24[29/06/2014])</f>
         <v>0</v>
       </c>
     </row>

--- a/docs/Sprint 9 - 1606 To 2906/LogTime_sprint 9.xlsx
+++ b/docs/Sprint 9 - 1606 To 2906/LogTime_sprint 9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
@@ -184,52 +184,52 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
@@ -251,47 +251,47 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O7" totalsRowCount="1" headerRowDxfId="31">
   <autoFilter ref="A1:O6"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Column1" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="2" name="16/06/2014" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="1" name="Column1" dataDxfId="30" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="16/06/2014" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="13">
       <totalsRowFormula>SUM(Table2[16/06/2014])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="17/06/2014" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="3" name="17/06/2014" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="12">
       <totalsRowFormula>SUM(Table2[17/06/2014])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="18/06/2014" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="4" name="18/06/2014" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="11">
       <totalsRowFormula>SUM(Table2[18/06/2014])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="19/06/2014" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="5" name="19/06/2014" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="10">
       <totalsRowFormula>SUM(Table2[19/06/2014])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="20/06/2014" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="6" name="20/06/2014" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="9">
       <totalsRowFormula>SUM(Table2[20/06/2014])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="21/06/2014" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="7" name="21/06/2014" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="8">
       <totalsRowFormula>SUM(Table2[21/06/2014])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="22/06/2014" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="8" name="22/06/2014" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="7">
       <totalsRowFormula>SUM(Table2[22/06/2014])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="23/06/2014" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="9" name="23/06/2014" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="6">
       <totalsRowFormula>SUM(Table2[23/06/2014])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="24/06/2014" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="10" name="24/06/2014" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="5">
       <totalsRowFormula>SUM(Table2[24/06/2014])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="25/06/2014" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="11" name="25/06/2014" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="4">
       <totalsRowFormula>SUM(Table2[25/06/2014])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" name="26/06/2014" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="12" name="26/06/2014" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="3">
       <totalsRowFormula>SUM(Table2[26/06/2014])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="27/06/2014" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="13" name="27/06/2014" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="2">
       <totalsRowFormula>SUM(Table2[27/06/2014])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="28/06/2014" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="14" name="28/06/2014" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="1">
       <totalsRowFormula>SUM(Table2[28/06/2014])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" name="29/06/2014" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="15" name="29/06/2014" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="0">
       <totalsRowFormula>SUM(Table2[29/06/2014])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:O10" totalsRowCount="1" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:O10" totalsRowCount="1" headerRowDxfId="15">
   <autoFilter ref="A1:O9"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Column1"/>
@@ -606,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
       </c>
       <c r="H7" s="4">
         <f>SUM(Table2[22/06/2014])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I7" s="4">
         <f>SUM(Table2[23/06/2014])</f>
@@ -830,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/docs/Sprint 9 - 1606 To 2906/LogTime_sprint 9.xlsx
+++ b/docs/Sprint 9 - 1606 To 2906/LogTime_sprint 9.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Column1</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Validate product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>Shipping policy</t>
   </si>
 </sst>
 </file>
@@ -248,8 +254,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O7" totalsRowCount="1" headerRowDxfId="31">
-  <autoFilter ref="A1:O6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O8" totalsRowCount="1" headerRowDxfId="31">
+  <autoFilter ref="A1:O7"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Column1" dataDxfId="30" totalsRowDxfId="14"/>
     <tableColumn id="2" name="16/06/2014" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="13">
@@ -614,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,6 +709,27 @@
       <c r="H2" s="4">
         <v>2</v>
       </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>3</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4">
+        <v>4</v>
+      </c>
+      <c r="O2" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -738,66 +765,86 @@
       <c r="H6" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
         <f>SUM(Table2[16/06/2014])</f>
         <v>4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="4">
         <f>SUM(Table2[17/06/2014])</f>
         <v>4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="4">
         <f>SUM(Table2[18/06/2014])</f>
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <f>SUM(Table2[19/06/2014])</f>
         <v>4</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
         <f>SUM(Table2[20/06/2014])</f>
         <v>3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="4">
         <f>SUM(Table2[21/06/2014])</f>
         <v>7</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="4">
         <f>SUM(Table2[22/06/2014])</f>
         <v>12</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="4">
         <f>SUM(Table2[23/06/2014])</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4">
         <f>SUM(Table2[24/06/2014])</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
+        <v>4</v>
+      </c>
+      <c r="K8" s="4">
         <f>SUM(Table2[25/06/2014])</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
+        <v>4</v>
+      </c>
+      <c r="L8" s="4">
         <f>SUM(Table2[26/06/2014])</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
+        <v>4</v>
+      </c>
+      <c r="M8" s="4">
         <f>SUM(Table2[27/06/2014])</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4">
         <f>SUM(Table2[28/06/2014])</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
+        <v>6</v>
+      </c>
+      <c r="O8" s="4">
         <f>SUM(Table2[29/06/2014])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>4</v>
+      </c>
+    </row>
     <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -806,17 +853,18 @@
     <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -830,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,6 +952,45 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+    </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>SUM(Table24[16/06/2014])</f>
@@ -931,19 +1018,19 @@
       </c>
       <c r="H10">
         <f>SUM(Table24[22/06/2014])</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I10">
         <f>SUM(Table24[23/06/2014])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <f>SUM(Table24[24/06/2014])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K10">
         <f>SUM(Table24[25/06/2014])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <f>SUM(Table24[26/06/2014])</f>
@@ -959,7 +1046,7 @@
       </c>
       <c r="O10">
         <f>SUM(Table24[29/06/2014])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
